--- a/Templates/F13Template.xlsx
+++ b/Templates/F13Template.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$13:$W$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$W$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$13:$W$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$W$19</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>№ п/п</t>
   </si>
@@ -133,24 +133,6 @@
   </si>
   <si>
     <t>Федеральное государственное бюджетное образовательное учреждение высшего образования</t>
-  </si>
-  <si>
-    <t>о</t>
-  </si>
-  <si>
-    <t>2, ИТ</t>
-  </si>
-  <si>
-    <t>ERP-системы</t>
-  </si>
-  <si>
-    <t>ИСМО-01-04-06-08-16</t>
-  </si>
-  <si>
-    <t>35 (3)</t>
-  </si>
-  <si>
-    <t>Лобанов А.А.</t>
   </si>
   <si>
     <t>%1</t>
@@ -306,7 +288,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,23 +337,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -416,7 +381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -631,95 +596,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -766,16 +642,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -794,21 +667,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -830,23 +694,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -855,50 +703,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -906,32 +718,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1280,10 +1095,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:W10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,7 +1106,7 @@
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" style="1" customWidth="1"/>
     <col min="3" max="5" width="6.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" style="7" customWidth="1"/>
     <col min="7" max="21" width="6.5703125" style="1" customWidth="1"/>
     <col min="22" max="22" width="11" style="1" customWidth="1"/>
     <col min="23" max="23" width="27.7109375" style="1" customWidth="1"/>
@@ -1299,702 +1114,652 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
     </row>
     <row r="7" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="4" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
     </row>
     <row r="9" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
+      <c r="A10" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
     </row>
     <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="40" t="s">
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="W12" s="44" t="s">
+      <c r="W12" s="23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="143.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="10" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="11" t="s">
+      <c r="M13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="N13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O13" s="11" t="s">
+      <c r="O13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P13" s="11" t="s">
+      <c r="P13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="Q13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R13" s="11" t="s">
+      <c r="R13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S13" s="11" t="s">
+      <c r="S13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="T13" s="11" t="s">
+      <c r="T13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="U13" s="30" t="s">
+      <c r="U13" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="V13" s="41"/>
-      <c r="W13" s="45"/>
-    </row>
-    <row r="14" spans="1:23" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
+      <c r="V13" s="22"/>
+      <c r="W13" s="24"/>
+    </row>
+    <row r="14" spans="1:23" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="H14" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="I14" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="J14" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="K14" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="50" t="s">
+      <c r="L14" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="M14" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="50" t="s">
+      <c r="N14" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="53" t="s">
+      <c r="O14" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="49" t="s">
+      <c r="P14" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="K14" s="50" t="s">
+      <c r="Q14" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="L14" s="50" t="s">
+      <c r="R14" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="M14" s="50" t="s">
+      <c r="S14" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="N14" s="50" t="s">
+      <c r="T14" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="O14" s="50" t="s">
+      <c r="U14" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="P14" s="50" t="s">
+      <c r="V14" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="Q14" s="50" t="s">
+      <c r="W14" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="R14" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="S14" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="T14" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="U14" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="V14" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="W14" s="54" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
+    </row>
+    <row r="15" spans="1:23" s="17" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="29"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
       <c r="U15" s="30"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="45"/>
-    </row>
-    <row r="16" spans="1:23" s="25" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="12">
-        <v>4</v>
-      </c>
-      <c r="G16" s="12">
-        <v>4</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="36">
-        <v>18</v>
-      </c>
-      <c r="K16" s="37">
-        <v>144</v>
-      </c>
-      <c r="L16" s="38"/>
-      <c r="M16" s="39">
-        <v>8.75</v>
-      </c>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="42">
-        <f t="shared" ref="V16" si="0">SUM(J16:U16)</f>
-        <v>170.75</v>
-      </c>
-      <c r="W16" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="59" t="s">
+      <c r="V15" s="31"/>
+      <c r="W15" s="33"/>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="2">
-        <f t="shared" ref="J17:V17" si="1">SUM(J16:J16)</f>
-        <v>18</v>
-      </c>
-      <c r="K17" s="2">
-        <f t="shared" si="1"/>
-        <v>144</v>
-      </c>
-      <c r="L17" s="2">
-        <f t="shared" si="1"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="34">
+        <f>SUM(J14:J15)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="2">
-        <f t="shared" si="1"/>
-        <v>8.75</v>
-      </c>
-      <c r="N17" s="2">
-        <f t="shared" si="1"/>
+      <c r="K16" s="34">
+        <f>SUM(K14:K15)</f>
         <v>0</v>
       </c>
-      <c r="O17" s="2">
-        <f t="shared" si="1"/>
+      <c r="L16" s="34">
+        <f t="shared" ref="L16:U16" si="0">SUM(L14:L15)</f>
         <v>0</v>
       </c>
-      <c r="P17" s="2">
-        <f t="shared" si="1"/>
+      <c r="M16" s="34">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="2">
-        <f t="shared" si="1"/>
+      <c r="N16" s="34">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R17" s="2">
-        <f t="shared" si="1"/>
+      <c r="O16" s="34">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S17" s="2">
-        <f t="shared" si="1"/>
+      <c r="P16" s="34">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T17" s="2">
-        <f t="shared" si="1"/>
+      <c r="Q16" s="34">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U17" s="2">
-        <f t="shared" si="1"/>
+      <c r="R16" s="34">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V17" s="43">
-        <f t="shared" si="1"/>
-        <v>170.75</v>
-      </c>
-      <c r="W17" s="46"/>
-    </row>
-    <row r="19" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
+      <c r="S16" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="34">
+        <f>SUM(V14:V15)</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="25"/>
+    </row>
+    <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="4" t="s">
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+    <row r="20" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C20" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="55"/>
-      <c r="U21" s="55"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="55"/>
-    </row>
-    <row r="22" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="14"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+    </row>
+    <row r="21" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="10"/>
     </row>
   </sheetData>
   <sortState ref="B14:W490">
     <sortCondition ref="B14"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="C21:W21"/>
+    <mergeCell ref="C20:W20"/>
     <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A19:W19"/>
+    <mergeCell ref="A18:W18"/>
     <mergeCell ref="A6:W6"/>
     <mergeCell ref="A5:W5"/>
     <mergeCell ref="A4:W4"/>
     <mergeCell ref="A3:W3"/>
     <mergeCell ref="A2:W2"/>
-    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A16:I16"/>
     <mergeCell ref="A10:W10"/>
     <mergeCell ref="A9:W9"/>
     <mergeCell ref="A8:W8"/>
